--- a/Analytics/D1/bundesliga_shirts_d1.xlsx
+++ b/Analytics/D1/bundesliga_shirts_d1.xlsx
@@ -76,67 +76,67 @@
     <t>18</t>
   </si>
   <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Mgladbach</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
     <t>Freiburg</t>
   </si>
   <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>Mgladbach</t>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
   </si>
   <si>
     <t>Bayern Munich</t>
   </si>
   <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
     <t>Union Berlin</t>
   </si>
   <si>
-    <t>Ein Frankfurt</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>FC Koln</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
     <t>Mainz</t>
   </si>
   <si>
+    <t>St Pauli</t>
+  </si>
+  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("Tbundesliga_shirts")</t>
   </si>
   <si>
-    <t>SUM("Tbundesliga_shirts") / 34</t>
+    <t>SUM("Tbundesliga_shirts") / 9</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>1253.0</v>
+        <v>402.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>1154.0</v>
+        <v>369.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>1135.0</v>
+        <v>353.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>1073.0</v>
+        <v>324.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>1050.0</v>
+        <v>324.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>1025.0</v>
+        <v>313.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>1006.0</v>
+        <v>298.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>1004.0</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>971.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>953.0</v>
+        <v>289.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>914.0</v>
+        <v>228.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>909.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>899.0</v>
+        <v>171.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>895.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>884.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>869.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>853.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>594.0</v>
+        <v>82.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>1395.0</v>
+        <v>476.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>1200.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>1126.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>1091.0</v>
+        <v>299.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>1057.0</v>
+        <v>299.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>1051.0</v>
+        <v>294.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>1033.0</v>
+        <v>288.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>978.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>940.0</v>
+        <v>247.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>935.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="13">
@@ -545,7 +545,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>931.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="14">
@@ -556,7 +556,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>917.0</v>
+        <v>194.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>901.0</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>787.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>774.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>729.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C19" t="n">
-        <v>636.0</v>
+        <v>132.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>2468.0</v>
+        <v>630.0</v>
       </c>
       <c r="D2" t="n">
-        <v>72.58823529411765</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>2335.0</v>
+        <v>623.0</v>
       </c>
       <c r="D3" t="n">
-        <v>68.67647058823529</v>
+        <v>69.22222222222223</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>2245.0</v>
+        <v>612.0</v>
       </c>
       <c r="D4" t="n">
-        <v>66.02941176470588</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>2213.0</v>
+        <v>605.0</v>
       </c>
       <c r="D5" t="n">
-        <v>65.08823529411765</v>
+        <v>67.22222222222223</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>2039.0</v>
+        <v>603.0</v>
       </c>
       <c r="D6" t="n">
-        <v>59.970588235294116</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>2028.0</v>
+        <v>592.0</v>
       </c>
       <c r="D7" t="n">
-        <v>59.64705882352941</v>
+        <v>65.77777777777777</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>2010.0</v>
+        <v>556.0</v>
       </c>
       <c r="D8" t="n">
-        <v>59.11764705882353</v>
+        <v>61.77777777777778</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>1965.0</v>
+        <v>554.0</v>
       </c>
       <c r="D9" t="n">
-        <v>57.794117647058826</v>
+        <v>61.55555555555556</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>1944.0</v>
+        <v>553.0</v>
       </c>
       <c r="D10" t="n">
-        <v>57.1764705882353</v>
+        <v>61.44444444444444</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>1847.0</v>
+        <v>542.0</v>
       </c>
       <c r="D11" t="n">
-        <v>54.3235294117647</v>
+        <v>60.22222222222222</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>1837.0</v>
+        <v>534.0</v>
       </c>
       <c r="D12" t="n">
-        <v>54.029411764705884</v>
+        <v>59.333333333333336</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>1816.0</v>
+        <v>517.0</v>
       </c>
       <c r="D13" t="n">
-        <v>53.411764705882355</v>
+        <v>57.44444444444444</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>1810.0</v>
+        <v>446.0</v>
       </c>
       <c r="D14" t="n">
-        <v>53.23529411764706</v>
+        <v>49.55555555555556</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>1799.0</v>
+        <v>427.0</v>
       </c>
       <c r="D15" t="n">
-        <v>52.911764705882355</v>
+        <v>47.44444444444444</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>1788.0</v>
+        <v>389.0</v>
       </c>
       <c r="D16" t="n">
-        <v>52.588235294117645</v>
+        <v>43.22222222222222</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>1624.0</v>
+        <v>365.0</v>
       </c>
       <c r="D17" t="n">
-        <v>47.76470588235294</v>
+        <v>40.55555555555556</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>1589.0</v>
+        <v>290.0</v>
       </c>
       <c r="D18" t="n">
-        <v>46.73529411764706</v>
+        <v>32.22222222222222</v>
       </c>
     </row>
     <row r="19">
@@ -885,10 +885,10 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>1525.0</v>
+        <v>280.0</v>
       </c>
       <c r="D19" t="n">
-        <v>44.85294117647059</v>
+        <v>31.11111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/D1/bundesliga_shirts_d1.xlsx
+++ b/Analytics/D1/bundesliga_shirts_d1.xlsx
@@ -76,55 +76,55 @@
     <t>18</t>
   </si>
   <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
     <t>Hoffenheim</t>
   </si>
   <si>
-    <t>Dortmund</t>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Mgladbach</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
   </si>
   <si>
     <t>Augsburg</t>
   </si>
   <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
     <t>Ein Frankfurt</t>
   </si>
   <si>
-    <t>Mgladbach</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Mainz</t>
   </si>
   <si>
     <t>Bochum</t>
   </si>
   <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
     <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Mainz</t>
   </si>
   <si>
     <t>St Pauli</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>402.0</v>
+        <v>565.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>369.0</v>
+        <v>564.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>353.0</v>
+        <v>513.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>324.0</v>
+        <v>487.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>324.0</v>
+        <v>473.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>313.0</v>
+        <v>455.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>298.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>297.0</v>
+        <v>427.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>295.0</v>
+        <v>395.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>289.0</v>
+        <v>386.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>228.0</v>
+        <v>331.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>210.0</v>
+        <v>323.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>171.0</v>
+        <v>304.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>170.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>154.0</v>
+        <v>274.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>141.0</v>
+        <v>271.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>139.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>82.0</v>
+        <v>211.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>476.0</v>
+        <v>627.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>377.0</v>
+        <v>526.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>346.0</v>
+        <v>501.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>299.0</v>
+        <v>475.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>299.0</v>
+        <v>454.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>294.0</v>
+        <v>453.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>288.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>265.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>250.0</v>
+        <v>405.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>247.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>219.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>198.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>194.0</v>
+        <v>318.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>193.0</v>
+        <v>287.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>184.0</v>
+        <v>266.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>149.0</v>
+        <v>236.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>149.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C19" t="n">
-        <v>132.0</v>
+        <v>220.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>630.0</v>
+        <v>958.0</v>
       </c>
       <c r="D2" t="n">
-        <v>70.0</v>
+        <v>106.44444444444444</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>623.0</v>
+        <v>930.0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.22222222222223</v>
+        <v>103.33333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>612.0</v>
+        <v>928.0</v>
       </c>
       <c r="D4" t="n">
-        <v>68.0</v>
+        <v>103.11111111111111</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>605.0</v>
+        <v>925.0</v>
       </c>
       <c r="D5" t="n">
-        <v>67.22222222222223</v>
+        <v>102.77777777777777</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>603.0</v>
+        <v>862.0</v>
       </c>
       <c r="D6" t="n">
-        <v>67.0</v>
+        <v>95.77777777777777</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>592.0</v>
+        <v>852.0</v>
       </c>
       <c r="D7" t="n">
-        <v>65.77777777777777</v>
+        <v>94.66666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -731,10 +731,10 @@
         <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>556.0</v>
+        <v>849.0</v>
       </c>
       <c r="D8" t="n">
-        <v>61.77777777777778</v>
+        <v>94.33333333333333</v>
       </c>
     </row>
     <row r="9">
@@ -745,10 +745,10 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>554.0</v>
+        <v>829.0</v>
       </c>
       <c r="D9" t="n">
-        <v>61.55555555555556</v>
+        <v>92.11111111111111</v>
       </c>
     </row>
     <row r="10">
@@ -759,10 +759,10 @@
         <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>553.0</v>
+        <v>790.0</v>
       </c>
       <c r="D10" t="n">
-        <v>61.44444444444444</v>
+        <v>87.77777777777777</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>542.0</v>
+        <v>768.0</v>
       </c>
       <c r="D11" t="n">
-        <v>60.22222222222222</v>
+        <v>85.33333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>534.0</v>
+        <v>733.0</v>
       </c>
       <c r="D12" t="n">
-        <v>59.333333333333336</v>
+        <v>81.44444444444444</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>517.0</v>
+        <v>727.0</v>
       </c>
       <c r="D13" t="n">
-        <v>57.44444444444444</v>
+        <v>80.77777777777777</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>446.0</v>
+        <v>725.0</v>
       </c>
       <c r="D14" t="n">
-        <v>49.55555555555556</v>
+        <v>80.55555555555556</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>427.0</v>
+        <v>693.0</v>
       </c>
       <c r="D15" t="n">
-        <v>47.44444444444444</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="16">
@@ -843,10 +843,10 @@
         <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>389.0</v>
+        <v>690.0</v>
       </c>
       <c r="D16" t="n">
-        <v>43.22222222222222</v>
+        <v>76.66666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -857,10 +857,10 @@
         <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>365.0</v>
+        <v>674.0</v>
       </c>
       <c r="D17" t="n">
-        <v>40.55555555555556</v>
+        <v>74.88888888888889</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>290.0</v>
+        <v>477.0</v>
       </c>
       <c r="D18" t="n">
-        <v>32.22222222222222</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>280.0</v>
+        <v>454.0</v>
       </c>
       <c r="D19" t="n">
-        <v>31.11111111111111</v>
+        <v>50.44444444444444</v>
       </c>
     </row>
   </sheetData>
